--- a/BiDAF/result/result.xlsx
+++ b/BiDAF/result/result.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC0301B-25A3-466F-820D-F178A34C0341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2196" yWindow="4260" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Batch_Size</t>
   </si>
@@ -27,12 +33,18 @@
   <si>
     <t>F1 Score</t>
   </si>
+  <si>
+    <t>Train_Loss</t>
+  </si>
+  <si>
+    <t>Test_Loss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +107,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +193,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +245,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +460,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -419,8 +483,14 @@
       <c r="E2">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>8.68</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -436,8 +506,14 @@
       <c r="E3">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>8.08</v>
+      </c>
+      <c r="G3">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -453,8 +529,14 @@
       <c r="E4">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>8.15</v>
+      </c>
+      <c r="G4">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -470,8 +552,14 @@
       <c r="E5">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>8.11</v>
+      </c>
+      <c r="G5">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -487,8 +575,14 @@
       <c r="E6">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>8.06</v>
+      </c>
+      <c r="G6">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -504,8 +598,14 @@
       <c r="E7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>8.14</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -521,8 +621,14 @@
       <c r="E8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>8.07</v>
+      </c>
+      <c r="G8">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -538,8 +644,14 @@
       <c r="E9">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>8.07</v>
+      </c>
+      <c r="G9">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -555,8 +667,14 @@
       <c r="E10">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>8.09</v>
+      </c>
+      <c r="G10">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -572,8 +690,14 @@
       <c r="E11">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>8.11</v>
+      </c>
+      <c r="G11">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -584,13 +708,19 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E12">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>6.6</v>
+      </c>
+      <c r="G12">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -604,10 +734,16 @@
         <v>0.44</v>
       </c>
       <c r="E13">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F13">
+        <v>5.17</v>
+      </c>
+      <c r="G13">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -623,8 +759,14 @@
       <c r="E14">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -640,8 +782,14 @@
       <c r="E15">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>4.09</v>
+      </c>
+      <c r="G15">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -657,8 +805,14 @@
       <c r="E16">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>4.05</v>
+      </c>
+      <c r="G16">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -674,8 +828,14 @@
       <c r="E17">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>4.05</v>
+      </c>
+      <c r="G17">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -691,8 +851,14 @@
       <c r="E18">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>4.09</v>
+      </c>
+      <c r="G18">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -708,8 +874,14 @@
       <c r="E19">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>4.09</v>
+      </c>
+      <c r="G19">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -725,8 +897,14 @@
       <c r="E20">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G20">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -742,8 +920,14 @@
       <c r="E21">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G21">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -759,8 +943,14 @@
       <c r="E22">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>6.55</v>
+      </c>
+      <c r="G22">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -776,8 +966,14 @@
       <c r="E23">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>4.33</v>
+      </c>
+      <c r="G23">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -788,13 +984,19 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E24">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.69</v>
+      </c>
+      <c r="F24">
+        <v>3.71</v>
+      </c>
+      <c r="G24">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -810,8 +1012,14 @@
       <c r="E25">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>3.47</v>
+      </c>
+      <c r="G25">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -827,8 +1035,14 @@
       <c r="E26">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>3.32</v>
+      </c>
+      <c r="G26">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -844,8 +1058,14 @@
       <c r="E27">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>3.22</v>
+      </c>
+      <c r="G27">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -861,8 +1081,14 @@
       <c r="E28">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>3.13</v>
+      </c>
+      <c r="G28">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -878,8 +1104,14 @@
       <c r="E29">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>3.06</v>
+      </c>
+      <c r="G29">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -895,8 +1127,14 @@
       <c r="E30">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -912,8 +1150,14 @@
       <c r="E31">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>2.97</v>
+      </c>
+      <c r="G31">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -929,8 +1173,14 @@
       <c r="E32">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>6.82</v>
+      </c>
+      <c r="G32">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -946,8 +1196,14 @@
       <c r="E33">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>4.58</v>
+      </c>
+      <c r="G33">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -958,13 +1214,19 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E34">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>3.82</v>
+      </c>
+      <c r="G34">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -980,8 +1242,14 @@
       <c r="E35">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>3.46</v>
+      </c>
+      <c r="G35">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -997,8 +1265,14 @@
       <c r="E36">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>3.25</v>
+      </c>
+      <c r="G36">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1014,8 +1288,14 @@
       <c r="E37">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>3.1</v>
+      </c>
+      <c r="G37">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1031,8 +1311,14 @@
       <c r="E38">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>2.99</v>
+      </c>
+      <c r="G38">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1048,8 +1334,14 @@
       <c r="E39">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>2.89</v>
+      </c>
+      <c r="G39">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1065,8 +1357,14 @@
       <c r="E40">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>2.81</v>
+      </c>
+      <c r="G40">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1082,8 +1380,14 @@
       <c r="E41">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>2.74</v>
+      </c>
+      <c r="G41">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1099,8 +1403,14 @@
       <c r="E42">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>7.34</v>
+      </c>
+      <c r="G42">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1116,8 +1426,14 @@
       <c r="E43">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>5.13</v>
+      </c>
+      <c r="G43">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1133,8 +1449,14 @@
       <c r="E44">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>4.13</v>
+      </c>
+      <c r="G44">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1145,13 +1467,19 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E45">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.69</v>
+      </c>
+      <c r="F45">
+        <v>3.66</v>
+      </c>
+      <c r="G45">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1162,13 +1490,19 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E46">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>3.36</v>
+      </c>
+      <c r="G46">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1184,8 +1518,14 @@
       <c r="E47">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>3.18</v>
+      </c>
+      <c r="G47">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1201,8 +1541,14 @@
       <c r="E48">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>3.04</v>
+      </c>
+      <c r="G48">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1218,8 +1564,14 @@
       <c r="E49">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>2.93</v>
+      </c>
+      <c r="G49">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1235,8 +1587,14 @@
       <c r="E50">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>2.82</v>
+      </c>
+      <c r="G50">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1251,6 +1609,12 @@
       </c>
       <c r="E51">
         <v>0.74</v>
+      </c>
+      <c r="F51">
+        <v>2.74</v>
+      </c>
+      <c r="G51">
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>

--- a/BiDAF/result/result.xlsx
+++ b/BiDAF/result/result.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3105BA1C-104D-4174-8571-79164C2D5533}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Batch_Size</t>
   </si>
@@ -27,12 +33,15 @@
   <si>
     <t>F1 Score</t>
   </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,17 +93,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +194,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +246,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,878 +439,934 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0.08</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.09</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>0.09</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.08</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.09</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.28</v>
+        <v>1</v>
       </c>
       <c r="E12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.44</v>
       </c>
-      <c r="E13">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.52</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>0.52</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.66</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.51</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.51</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.64</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.52</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.66</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.53</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.66</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.54</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.67</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2"/>
+      <c r="C22">
         <v>16</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>0.41</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.54</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2"/>
+      <c r="C23">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.53</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.66</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2"/>
+      <c r="C24">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>0.57</v>
-      </c>
       <c r="E24">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2"/>
+      <c r="C25">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.59</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.71</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2"/>
+      <c r="C26">
         <v>16</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
       <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
         <v>0.6</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.72</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2"/>
+      <c r="C27">
         <v>16</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.61</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.73</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2"/>
+      <c r="C28">
         <v>16</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.62</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.73</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2"/>
+      <c r="C29">
         <v>16</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.61</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2"/>
+      <c r="C30">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.62</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.74</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2"/>
+      <c r="C31">
         <v>16</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>10</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.62</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.74</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2"/>
+      <c r="C32">
         <v>32</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>0.34</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.48</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2"/>
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.5</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.63</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2"/>
+      <c r="C34">
         <v>32</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="E34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F34">
         <v>0.68</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2"/>
+      <c r="C35">
         <v>32</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.6</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.72</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2"/>
+      <c r="C36">
         <v>32</v>
       </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
       <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
         <v>0.61</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.72</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2"/>
+      <c r="C37">
         <v>32</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.61</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.73</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2"/>
+      <c r="C38">
         <v>32</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>7</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.62</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.74</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2"/>
+      <c r="C39">
         <v>32</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.61</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.73</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2"/>
+      <c r="C40">
         <v>32</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.62</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.74</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2"/>
+      <c r="C41">
         <v>32</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.63</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2"/>
+      <c r="C42">
         <v>64</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>0.22</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.33</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2"/>
+      <c r="C43">
         <v>64</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.46</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.59</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2"/>
+      <c r="C44">
         <v>64</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.52</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.64</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2"/>
+      <c r="C45">
         <v>64</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>0.57</v>
-      </c>
       <c r="E45">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F45">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2"/>
+      <c r="C46">
         <v>64</v>
       </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
       <c r="D46">
-        <v>0.58</v>
+        <v>5</v>
       </c>
       <c r="E46">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F46">
         <v>0.71</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2"/>
+      <c r="C47">
         <v>64</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>6</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.6</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.72</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2"/>
+      <c r="C48">
         <v>64</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>7</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.61</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.73</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2"/>
+      <c r="C49">
         <v>64</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>8</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.62</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.73</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2"/>
+      <c r="C50">
         <v>64</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>9</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.63</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.74</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2"/>
+      <c r="C51">
         <v>64</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>10</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.63</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>